--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.326</v>
+        <v>-21.756</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.244</v>
+        <v>-21.108</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.76</v>
+        <v>-21.038</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.168</v>
+        <v>-21.013</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-22.008</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
